--- a/DataSet/standing2005-2006.xlsx
+++ b/DataSet/standing2005-2006.xlsx
@@ -448,102 +448,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="B16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
